--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SugarCRM_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6266FD-76F0-4756-BEC6-FCB86EA01F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6337D6-C781-4C3B-BFB8-DD8A50DFFF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$6:$D$24,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$AC$27:$AC$35,Specifications!$Y$27:$Y$35,Specifications!$Q$27:$Q$35,Specifications!$M$27:$M$35,Specifications!$I$27:$I$35,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$Y$6:$Y$24,Specifications!$AC$6:$AC$24</definedName>
+    <definedName name="checkbox">Specifications!$C$6:$D$28,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$AC$31:$AC$36,Specifications!$Y$31:$Y$36,Specifications!$Q$31:$Q$36,Specifications!$M$31:$M$36,Specifications!$I$31:$I$36,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$6:$I$28,Specifications!$M$6:$M$28,Specifications!$Q$6:$Q$28,Specifications!$Y$6:$Y$28,Specifications!$AC$6:$AC$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="91">
   <si>
     <t>Website</t>
   </si>
@@ -291,6 +291,36 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Not Used Field</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory_field</t>
+  </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
   </si>
 </sst>
 </file>
@@ -411,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -427,19 +457,6 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -452,15 +469,6 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -510,64 +518,10 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -580,9 +534,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -590,73 +542,6 @@
         <color rgb="FF9DA600"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -813,19 +698,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -928,7 +800,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -939,26 +813,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCA1C17"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFCA1C17"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -972,8 +826,19 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color rgb="FFCA1C17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCA1C17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,76 +850,13 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCA1C17"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FFCA1C17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFCA1C17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFCA1C17"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFCA1C17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -1141,28 +943,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF4A4A2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF4A4A2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1294,124 +1074,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1419,62 +1203,173 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1637,11 +1532,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1750,13 +1645,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1821,13 +1716,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2189,10 +2084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,8 +2117,8 @@
     <col min="27" max="29" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1"/>
@@ -2233,1386 +2128,1525 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="41"/>
-      <c r="K2" s="41"/>
+    <row r="2" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:29" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:37" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="G3" s="90" t="s">
+      <c r="E3" s="19"/>
+      <c r="G3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="90" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="O3" s="90" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="S3" s="90" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="S3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="W3" s="87" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="W3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="89"/>
-      <c r="AA3" s="87" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="66"/>
+      <c r="AA3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="89"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="66"/>
     </row>
-    <row r="4" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+    <row r="4" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="36" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="U5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="72" t="s">
+      <c r="W5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="X5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="74" t="s">
+      <c r="Y5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="72" t="s">
+      <c r="AA5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="73" t="s">
+      <c r="AB5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="74" t="s">
+      <c r="AC5" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="57"/>
+    <row r="6" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="G6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="57"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="57"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="57"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="76"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="76"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="38"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="38"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="38"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="49"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="49"/>
     </row>
-    <row r="7" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="22"/>
+      <c r="G7" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="38"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="38"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="38"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="49"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="49"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="22"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="38"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="38"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="38"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="49"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="49"/>
+    </row>
+    <row r="9" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="G7" s="58" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="22"/>
+      <c r="F9"/>
+      <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I9" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="58" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M9" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="N7"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="59"/>
-      <c r="S7" s="58" t="s">
+      <c r="N9"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="38"/>
+      <c r="R9"/>
+      <c r="S9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="59" t="s">
+      <c r="U9" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="77" t="s">
+      <c r="V9"/>
+      <c r="W9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="78"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="58" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="22"/>
+      <c r="G10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="58" t="s">
+      <c r="I10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="59"/>
-      <c r="S8" s="58" t="s">
+      <c r="M10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="38"/>
+      <c r="S10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="79" t="s">
+      <c r="U10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="78"/>
+      <c r="Y10" s="49"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="49"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="58" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="58" t="s">
+      <c r="I11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="59"/>
-      <c r="S9" s="58" t="s">
+      <c r="M11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="38"/>
+      <c r="S11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="77"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="78"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="78"/>
+      <c r="U11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="50"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="49"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="49"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="58" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="22"/>
+      <c r="G12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="58" t="s">
+      <c r="I12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="58" t="s">
+      <c r="M12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="58" t="s">
+      <c r="Q12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="77"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="78"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="78"/>
+      <c r="U12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="50"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="49"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="49"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="58" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="22"/>
+      <c r="G13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="58" t="s">
+      <c r="I13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="58" t="s">
+      <c r="M13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="58" t="s">
+      <c r="Q13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="77"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="78"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="78"/>
+      <c r="U13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="50"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="49"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="49"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="56" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="22"/>
+      <c r="G14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="56" t="s">
+      <c r="I14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="56" t="s">
+      <c r="M14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="56" t="s">
+      <c r="Q14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="77"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="78"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="78"/>
+      <c r="U14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="50"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="49"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="49"/>
     </row>
-    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+    <row r="15" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="G13" s="60" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="22"/>
+      <c r="F15"/>
+      <c r="G15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="60" t="s">
+      <c r="I15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="60" t="s">
+      <c r="M15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="48" t="s">
+      <c r="P15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="60" t="s">
+      <c r="Q15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="T15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="80"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="81"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="81"/>
+      <c r="U15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="62" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="22"/>
+      <c r="G16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="62" t="s">
+      <c r="I16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="62" t="s">
+      <c r="M16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="62" t="s">
+      <c r="Q16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="T16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="77"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="78"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="78"/>
+      <c r="U16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="50"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="49"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="49"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="58" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="22"/>
+      <c r="G17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="58" t="s">
+      <c r="I17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="58" t="s">
+      <c r="M17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="58" t="s">
+      <c r="Q17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W15" s="77"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="78"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="78"/>
+      <c r="U17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="50"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="49"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="49"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="58" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="22"/>
+      <c r="G18" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="58" t="s">
+      <c r="I18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="58" t="s">
+      <c r="M18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="58" t="s">
+      <c r="Q18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="77"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="78"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="78"/>
+      <c r="U18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="50"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="49"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="49"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="58" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="22"/>
+      <c r="G19" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="58" t="s">
+      <c r="I19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="58" t="s">
+      <c r="M19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="58" t="s">
+      <c r="Q19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="77"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="78"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="78"/>
+      <c r="U19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="50"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="49"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="49"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="58" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="22"/>
+      <c r="G20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="58" t="s">
+      <c r="I20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="58"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="59"/>
-      <c r="S18" s="58" t="s">
+      <c r="M20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="38"/>
+      <c r="S20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="77"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="78"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="78"/>
+      <c r="U20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="50"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="49"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="49"/>
     </row>
-    <row r="19" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="21" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="G19" s="60" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="22"/>
+      <c r="F21"/>
+      <c r="G21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="60" t="s">
+      <c r="I21" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="48" t="s">
+      <c r="L21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="60" t="s">
+      <c r="M21" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="48" t="s">
+      <c r="P21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" s="60" t="s">
+      <c r="Q21" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="T19" s="48" t="s">
+      <c r="T21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="80"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="81"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="81"/>
+      <c r="U21" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="34"/>
-      <c r="G20" s="58" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="22"/>
+      <c r="G22" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="58" t="s">
+      <c r="I22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="58" t="s">
+      <c r="M22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="58" t="s">
+      <c r="Q22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="78"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="78"/>
+      <c r="U22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="50"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="49"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="49"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="56" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="22"/>
+      <c r="G23" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="56" t="s">
+      <c r="I23" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="56" t="s">
+      <c r="M23" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="56"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="57"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="76"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="76"/>
+      <c r="Q23" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="37"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="38"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="49"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="49"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="56" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="22"/>
+      <c r="G24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="57"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="57"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="57"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="76"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="76"/>
+      <c r="I24" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="38"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="38"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="38"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="49"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="49"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="G23" s="56" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="22"/>
+      <c r="G25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="57"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="57"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="57"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="76"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="76"/>
+      <c r="I25" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="38"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="38"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="38"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="49"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="49"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="35"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="66"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="66"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="84"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="84"/>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="22"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="38"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="38"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="38"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="49"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="49"/>
     </row>
-    <row r="25" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="8"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="9"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="9"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="52"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="9"/>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="22"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="38"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="38"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="38"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="49"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="49"/>
     </row>
-    <row r="26" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
+    <row r="28" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="23"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="41"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="53"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="53"/>
+    </row>
+    <row r="29" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="6"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="7"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="7"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="7"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="33"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="7"/>
+    </row>
+    <row r="30" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G30" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H30" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I30" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="K30" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="54" t="s">
+      <c r="L30" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="55" t="s">
+      <c r="M30" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O30" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="54" t="s">
+      <c r="P30" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" s="55" t="s">
+      <c r="Q30" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S26" s="53" t="s">
+      <c r="S30" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="54" t="s">
+      <c r="T30" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U26" s="55" t="s">
+      <c r="U30" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W26" s="72" t="s">
+      <c r="W30" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="X26" s="73" t="s">
+      <c r="X30" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" s="74" t="s">
+      <c r="Y30" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AA26" s="72" t="s">
+      <c r="AA30" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AB26" s="73" t="s">
+      <c r="AB30" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AC26" s="74" t="s">
+      <c r="AC30" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+    <row r="31" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="43"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="38"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="38"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="38"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="38"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="49"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="49"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B32" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="70"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="59"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="59"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="59"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="59"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="78"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="78"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="70"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="59"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="59"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="59"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="59"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="78"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="78"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="70"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="59"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="59"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="59"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="59"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="78"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="78"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="59"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="59"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="59"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="59"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="78"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="78"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="31"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="59"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="59"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="59"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="59"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="78"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="78"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="31"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="59"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="59"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="59"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="59"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="78"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="78"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="43"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="38"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="38"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="38"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="38"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="49"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="49"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="31"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="59"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="59"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="59"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="59"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="78"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="78"/>
+      <c r="A33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="43"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="38"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="38"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="38"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="38"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="49"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="49"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="31"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="59"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="59"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="59"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="59"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="78"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="78"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="20"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="38"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="38"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="38"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="38"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="49"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="49"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="32"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="66"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="66"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="84"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="84"/>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="20"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="38"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="38"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="38"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="38"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="49"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="49"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="21"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="41"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="53"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="53"/>
+    </row>
+    <row r="37" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="W27:AC35 W3:AC26" name="customEntities"/>
-    <protectedRange sqref="A6:AC24" name="Contact Fields"/>
-    <protectedRange sqref="A30:R35 F27:R29 S27:AC35" name="Questionnaire"/>
-    <protectedRange sqref="A27:E29" name="Questionnaire_1"/>
+    <protectedRange sqref="W3:AC36" name="customEntities"/>
+    <protectedRange sqref="A6:E13 A15:E27 A14:B14 E14 A28:B28 D28:E28 G6:I28 K6:Q28 S6:U28 W6:Y28 AA6:AC28" name="Contact Fields"/>
+    <protectedRange sqref="F31:R33 S31:AC36 A34:R36" name="Questionnaire"/>
+    <protectedRange sqref="A32:E33 B31:E31" name="Questionnaire_1"/>
+    <protectedRange sqref="A31" name="Questionnaire_1_1"/>
+    <protectedRange sqref="C14:D14" name="Contact Fields_1"/>
+    <protectedRange sqref="C28" name="Contact Fields_2"/>
   </protectedRanges>
-  <mergeCells count="14">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
+  <mergeCells count="11">
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="W7:AK25 A7:R25">
-    <cfRule type="expression" dxfId="7" priority="23">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="W29:AC29 A9:E13 A15:E27 E6:E27 A29:E29 A6:B28 D28:E28 N9:N27 G6:I29 K29:R29 K28:Q28 W6:Y28 AA28:AC28">
+    <cfRule type="expression" dxfId="19" priority="35">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="24">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="36">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA27:AC35 W27:Y35 O27:Q35 K27:M35 G27:I35 S27:U35">
-    <cfRule type="expression" dxfId="5" priority="21">
-      <formula>$C27="x"</formula>
+  <conditionalFormatting sqref="AA31:AC36 W31:Y36 O31:Q36 K31:M36 G31:I36 S31:U36">
+    <cfRule type="expression" dxfId="17" priority="33">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="22">
-      <formula>$D27="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="34">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25:V25 V7:V24">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="S29:V29">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U24">
+  <conditionalFormatting sqref="S28:U28">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D27">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C27">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:Q27 K6:M27">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:U27">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6:AC27">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D7="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D28" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 M6:M24 Q6:Q24 U6:U24 Y6:Y24 AC6:AC24 AC27:AC35 Y27:Y35 U27:U35 Q27:Q35 M27:M35 I27:I35" xr:uid="{7C653D76-6B33-460F-A0EA-B2C18A31CB82}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 M6:M28 Q6:Q28 U6:U28 Y6:Y28 AC6:AC28 I31:I36 M31:M36 Q31:Q36 U31:U36 Y31:Y36 AC31:AC36" xr:uid="{7C653D76-6B33-460F-A0EA-B2C18A31CB82}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3623,6 +3657,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3831,15 +3874,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3847,6 +3881,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3861,14 +3903,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SugarCRM_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6337D6-C781-4C3B-BFB8-DD8A50DFFF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A457D365-A6EF-41FD-90C7-F9EA29A039DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1203,6 +1203,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1220,18 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2087,7 +2087,7 @@
   <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,37 +2144,37 @@
         <v>67</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="O3" s="67" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="O3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="S3" s="67" t="s">
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="S3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="W3" s="64" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="W3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="66"/>
-      <c r="AA3" s="64" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="AA3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="66"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="60"/>
     </row>
     <row r="4" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3380,9 +3380,9 @@
       <c r="A31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="43"/>
       <c r="G31" s="37"/>
       <c r="H31" s="4"/>
@@ -3407,11 +3407,11 @@
       <c r="A32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="43"/>
       <c r="G32" s="37"/>
       <c r="H32" s="4"/>
@@ -3436,11 +3436,11 @@
       <c r="A33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="43"/>
       <c r="G33" s="37"/>
       <c r="H33" s="4"/>
@@ -3488,9 +3488,9 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="20"/>
       <c r="G35" s="37"/>
       <c r="H35" s="4"/>
@@ -3513,9 +3513,9 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="21"/>
       <c r="G36" s="39"/>
       <c r="H36" s="40"/>
@@ -3549,17 +3549,17 @@
     <protectedRange sqref="C28" name="Contact Fields_2"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W29:AC29 A9:E13 A15:E27 E6:E27 A29:E29 A6:B28 D28:E28 N9:N27 G6:I29 K29:R29 K28:Q28 W6:Y28 AA28:AC28">
@@ -3657,15 +3657,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3874,6 +3865,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3881,14 +3881,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3903,6 +3895,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SugarCRM_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SugarCRM_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A457D365-A6EF-41FD-90C7-F9EA29A039DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56525C98-17F1-4A96-9893-810B6EF05B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,18 +1203,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1232,6 +1220,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,8 +2086,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,37 +2144,37 @@
         <v>67</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="O3" s="61" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="S3" s="61" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="S3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="W3" s="58" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="W3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
-      <c r="AA3" s="58" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="66"/>
+      <c r="AA3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="60"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="66"/>
     </row>
     <row r="4" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3380,9 +3380,9 @@
       <c r="A31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="43"/>
       <c r="G31" s="37"/>
       <c r="H31" s="4"/>
@@ -3407,11 +3407,11 @@
       <c r="A32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="43"/>
       <c r="G32" s="37"/>
       <c r="H32" s="4"/>
@@ -3436,11 +3436,11 @@
       <c r="A33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="43"/>
       <c r="G33" s="37"/>
       <c r="H33" s="4"/>
@@ -3488,9 +3488,9 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="20"/>
       <c r="G35" s="37"/>
       <c r="H35" s="4"/>
@@ -3513,9 +3513,9 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="21"/>
       <c r="G36" s="39"/>
       <c r="H36" s="40"/>
@@ -3549,17 +3549,17 @@
     <protectedRange sqref="C28" name="Contact Fields_2"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W29:AC29 A9:E13 A15:E27 E6:E27 A29:E29 A6:B28 D28:E28 N9:N27 G6:I29 K29:R29 K28:Q28 W6:Y28 AA28:AC28">
@@ -3646,8 +3646,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D28" xr:uid="{F107F338-F4E1-4846-B740-D5F4398D0DCB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 M6:M28 Q6:Q28 U6:U28 Y6:Y28 AC6:AC28 I31:I36 M31:M36 Q31:Q36 U31:U36 Y31:Y36 AC31:AC36" xr:uid="{7C653D76-6B33-460F-A0EA-B2C18A31CB82}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 M6:M28 Q6:Q28 U6:U28 Y6:Y28 AC6:AC28 AC31:AC36 Y31:Y36 U31:U36 Q31:Q36 M31:M36 I31:I36" xr:uid="{42AECC20-7387-4370-8229-5A5260321E6F}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3657,6 +3657,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3865,15 +3874,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3881,6 +3881,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3895,14 +3903,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
